--- a/tabellen/concept/5.1/objectentabellen/objecten-concept-5.1-VV-verkeerskundevaarwegen.xlsx
+++ b/tabellen/concept/5.1/objectentabellen/objecten-concept-5.1-VV-verkeerskundevaarwegen.xlsx
@@ -8,22 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\100289\OneDrive\GitHub\NLCS\tabellen\concept\5.1\objectentabellen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{3AE9D303-EB42-4456-81FB-B14393E08311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{76FD7072-3D67-4C04-8B4E-132F3282FFC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{DE94437A-AF01-4083-AF60-14F76CC96825}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{7AA99E36-B4B4-442C-B0BE-19FDC516FB95}"/>
   </bookViews>
   <sheets>
     <sheet name="objecten-concept-5.1-VV-verkeer" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'objecten-concept-5.1-VV-verkeer'!$A$1:$BS$19</definedName>
-  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="149">
   <si>
     <t>objectURI</t>
   </si>
@@ -298,6 +295,108 @@
     <t>SVV-BETONNING</t>
   </si>
   <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/887bcff4-af22-475d-b5de-4f27df33a0e3</t>
+  </si>
+  <si>
+    <t>VERKEERSTEKEN_C</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/bf0c5f8d-509e-43e9-99cf-39881d60a51f</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/0328f1f0-42cb-42fe-8fec-2c615fa145ef</t>
+  </si>
+  <si>
+    <t>SVV-VERKEERSTEKEN_C</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/02693c6e-db5c-4691-8806-d22f45d83d79</t>
+  </si>
+  <si>
+    <t>VERKEERSTEKEN_H</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/07aae230-cb2e-4ed3-a826-397858d55458</t>
+  </si>
+  <si>
+    <t>SVV-VERKEERSTEKEN_H</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/1b076125-ac29-4fac-a967-8ad0e1a23877</t>
+  </si>
+  <si>
+    <t>VERKEERSTEKEN_B</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/7d903aba-803d-4e93-b088-03cbff4a2d30</t>
+  </si>
+  <si>
+    <t>SVV-VERKEERSTEKEN_B</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/55462d89-fabf-4349-91cb-a461177b7329</t>
+  </si>
+  <si>
+    <t>VERKEERSTEKEN_A</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/51520f93-0422-4177-a396-9bd502ca9429</t>
+  </si>
+  <si>
+    <t>SVV-VERKEERSTEKEN_A</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/26a7ff81-e38d-47b3-995f-3d20b87a3353</t>
+  </si>
+  <si>
+    <t>VERKEERSTEKEN_F</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/2267e1b8-6769-4dfc-8300-160314b5a149</t>
+  </si>
+  <si>
+    <t>SVV-VERKEERSTEKEN_F</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/7fc7a239-0e46-4d3e-b638-ac3724fdc097</t>
+  </si>
+  <si>
+    <t>VERKEERSTEKEN_D</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/4d10d685-e6f7-4b93-8c10-1744d7e79ac8</t>
+  </si>
+  <si>
+    <t>SVV-VERKEERSTEKEN_D</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/397a1995-b520-48f4-b647-59c385488ccb</t>
+  </si>
+  <si>
+    <t>VERKEERSTEKEN_E</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/4cf50bfb-a3ba-45d2-9aef-6f2c0a510302</t>
+  </si>
+  <si>
+    <t>SVV-VERKEERSTEKEN_E</t>
+  </si>
+  <si>
+    <t>VERKEERSTEKEN</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/2318080b-e0df-49c8-a454-4f8160f24f17</t>
+  </si>
+  <si>
+    <t>SVV-VERKEERSTEKEN_SPUISEIN-SO.dwg</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/0d3f2584-c4ee-4200-be58-b039e619a9c5</t>
+  </si>
+  <si>
+    <t>SVV-VERKEERSTEKEN_INLAATSEIN-SO.dwg</t>
+  </si>
+  <si>
     <t>http://digitalbuildingdata.tech/nlcs/def/164c3f81-801b-4772-8155-338802026769</t>
   </si>
   <si>
@@ -355,51 +454,6 @@
     <t>VERKEERSTEKEN_DRAAGCONSTRUCTIE</t>
   </si>
   <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/bf0c5f8d-509e-43e9-99cf-39881d60a51f</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/887bcff4-af22-475d-b5de-4f27df33a0e3</t>
-  </si>
-  <si>
-    <t>VERKEERSTEKEN_C</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/02693c6e-db5c-4691-8806-d22f45d83d79</t>
-  </si>
-  <si>
-    <t>VERKEERSTEKEN_G</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/1b076125-ac29-4fac-a967-8ad0e1a23877</t>
-  </si>
-  <si>
-    <t>VERKEERSTEKEN_B</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/55462d89-fabf-4349-91cb-a461177b7329</t>
-  </si>
-  <si>
-    <t>VERKEERSTEKEN_A</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/26a7ff81-e38d-47b3-995f-3d20b87a3353</t>
-  </si>
-  <si>
-    <t>VERKEERSTEKEN_F</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/7fc7a239-0e46-4d3e-b638-ac3724fdc097</t>
-  </si>
-  <si>
-    <t>VERKEERSTEKEN_D</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/397a1995-b520-48f4-b647-59c385488ccb</t>
-  </si>
-  <si>
-    <t>VERKEERSTEKEN_E</t>
-  </si>
-  <si>
     <t>VAARGEBIED</t>
   </si>
   <si>
@@ -413,9 +467,6 @@
   </si>
   <si>
     <t>MARKERING</t>
-  </si>
-  <si>
-    <t>VERKEERSTEKEN</t>
   </si>
 </sst>
 </file>
@@ -1275,11 +1326,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8A736BD-04EE-404C-8332-E65186A3D1FE}">
-  <dimension ref="A1:BS19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41F2A7B5-7697-4007-AEFB-5B48D149A581}">
+  <dimension ref="A1:BS20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AZ1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1504,7 +1555,7 @@
     </row>
     <row r="2" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
         <v>72</v>
@@ -1513,10 +1564,16 @@
         <v>73</v>
       </c>
       <c r="D2">
-        <v>2548</v>
+        <v>4085</v>
       </c>
       <c r="E2" t="s">
-        <v>128</v>
+        <v>74</v>
+      </c>
+      <c r="F2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2">
+        <v>2540</v>
       </c>
       <c r="H2" t="s">
         <v>76</v>
@@ -1531,28 +1588,28 @@
         <v>79</v>
       </c>
       <c r="L2" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="M2">
-        <v>7</v>
+        <v>170</v>
       </c>
       <c r="N2" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="O2">
-        <v>7</v>
+        <v>172</v>
       </c>
       <c r="P2" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="Q2">
-        <v>7</v>
+        <v>170</v>
       </c>
       <c r="R2" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="S2">
-        <v>7</v>
+        <v>170</v>
       </c>
       <c r="T2" t="s">
         <v>82</v>
@@ -1573,28 +1630,28 @@
         <v>86</v>
       </c>
       <c r="Z2" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AA2">
-        <v>7</v>
+        <v>170</v>
       </c>
       <c r="AB2" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="AC2">
-        <v>7</v>
+        <v>172</v>
       </c>
       <c r="AD2" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AE2">
-        <v>7</v>
+        <v>170</v>
       </c>
       <c r="AF2" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AG2">
-        <v>7</v>
+        <v>170</v>
       </c>
       <c r="AH2" t="s">
         <v>82</v>
@@ -1615,28 +1672,28 @@
         <v>86</v>
       </c>
       <c r="AN2" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AO2">
-        <v>7</v>
+        <v>170</v>
       </c>
       <c r="AP2" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="AQ2">
-        <v>7</v>
+        <v>172</v>
       </c>
       <c r="AR2" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AS2">
-        <v>7</v>
+        <v>170</v>
       </c>
       <c r="AT2" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AU2">
-        <v>7</v>
+        <v>170</v>
       </c>
       <c r="AV2" t="s">
         <v>82</v>
@@ -1657,28 +1714,28 @@
         <v>86</v>
       </c>
       <c r="BB2" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="BC2">
-        <v>7</v>
+        <v>170</v>
       </c>
       <c r="BD2" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="BE2">
-        <v>7</v>
+        <v>172</v>
       </c>
       <c r="BF2" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="BG2">
-        <v>7</v>
+        <v>170</v>
       </c>
       <c r="BH2" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="BI2">
-        <v>7</v>
+        <v>170</v>
       </c>
       <c r="BJ2" t="s">
         <v>82</v>
@@ -1691,11 +1748,17 @@
       </c>
       <c r="BM2" t="s">
         <v>88</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>89</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s">
         <v>72</v>
@@ -1703,17 +1766,14 @@
       <c r="C3" t="s">
         <v>73</v>
       </c>
-      <c r="D3">
-        <v>2549</v>
-      </c>
       <c r="E3" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="F3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G3">
-        <v>2548</v>
+        <v>2542</v>
       </c>
       <c r="H3" t="s">
         <v>76</v>
@@ -1728,28 +1788,28 @@
         <v>79</v>
       </c>
       <c r="L3" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="M3">
-        <v>7</v>
+        <v>170</v>
       </c>
       <c r="N3" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="O3">
-        <v>7</v>
+        <v>172</v>
       </c>
       <c r="P3" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="Q3">
-        <v>7</v>
+        <v>170</v>
       </c>
       <c r="R3" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="S3">
-        <v>7</v>
+        <v>170</v>
       </c>
       <c r="T3" t="s">
         <v>82</v>
@@ -1770,28 +1830,28 @@
         <v>86</v>
       </c>
       <c r="Z3" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AA3">
-        <v>7</v>
+        <v>170</v>
       </c>
       <c r="AB3" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="AC3">
-        <v>7</v>
+        <v>172</v>
       </c>
       <c r="AD3" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AE3">
-        <v>7</v>
+        <v>170</v>
       </c>
       <c r="AF3" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AG3">
-        <v>7</v>
+        <v>170</v>
       </c>
       <c r="AH3" t="s">
         <v>82</v>
@@ -1812,28 +1872,28 @@
         <v>86</v>
       </c>
       <c r="AN3" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AO3">
-        <v>7</v>
+        <v>170</v>
       </c>
       <c r="AP3" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="AQ3">
-        <v>7</v>
+        <v>172</v>
       </c>
       <c r="AR3" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AS3">
-        <v>7</v>
+        <v>170</v>
       </c>
       <c r="AT3" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AU3">
-        <v>7</v>
+        <v>170</v>
       </c>
       <c r="AV3" t="s">
         <v>82</v>
@@ -1854,28 +1914,28 @@
         <v>86</v>
       </c>
       <c r="BB3" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="BC3">
-        <v>7</v>
+        <v>170</v>
       </c>
       <c r="BD3" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="BE3">
-        <v>7</v>
+        <v>172</v>
       </c>
       <c r="BF3" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="BG3">
-        <v>7</v>
+        <v>170</v>
       </c>
       <c r="BH3" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="BI3">
-        <v>7</v>
+        <v>170</v>
       </c>
       <c r="BJ3" t="s">
         <v>82</v>
@@ -1888,6 +1948,12 @@
       </c>
       <c r="BM3" t="s">
         <v>88</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>94</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:71" x14ac:dyDescent="0.35">
@@ -1900,17 +1966,14 @@
       <c r="C4" t="s">
         <v>73</v>
       </c>
-      <c r="D4">
-        <v>2550</v>
-      </c>
       <c r="E4" t="s">
         <v>97</v>
       </c>
       <c r="F4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G4">
-        <v>2548</v>
+        <v>2542</v>
       </c>
       <c r="H4" t="s">
         <v>76</v>
@@ -1925,28 +1988,28 @@
         <v>79</v>
       </c>
       <c r="L4" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="M4">
-        <v>7</v>
+        <v>170</v>
       </c>
       <c r="N4" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="O4">
-        <v>7</v>
+        <v>172</v>
       </c>
       <c r="P4" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="Q4">
-        <v>7</v>
+        <v>170</v>
       </c>
       <c r="R4" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="S4">
-        <v>7</v>
+        <v>170</v>
       </c>
       <c r="T4" t="s">
         <v>82</v>
@@ -1967,28 +2030,28 @@
         <v>86</v>
       </c>
       <c r="Z4" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AA4">
-        <v>7</v>
+        <v>170</v>
       </c>
       <c r="AB4" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="AC4">
-        <v>7</v>
+        <v>172</v>
       </c>
       <c r="AD4" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AE4">
-        <v>7</v>
+        <v>170</v>
       </c>
       <c r="AF4" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AG4">
-        <v>7</v>
+        <v>170</v>
       </c>
       <c r="AH4" t="s">
         <v>82</v>
@@ -2009,28 +2072,28 @@
         <v>86</v>
       </c>
       <c r="AN4" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AO4">
-        <v>7</v>
+        <v>170</v>
       </c>
       <c r="AP4" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="AQ4">
-        <v>7</v>
+        <v>172</v>
       </c>
       <c r="AR4" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AS4">
-        <v>7</v>
+        <v>170</v>
       </c>
       <c r="AT4" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AU4">
-        <v>7</v>
+        <v>170</v>
       </c>
       <c r="AV4" t="s">
         <v>82</v>
@@ -2051,28 +2114,28 @@
         <v>86</v>
       </c>
       <c r="BB4" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="BC4">
-        <v>7</v>
+        <v>170</v>
       </c>
       <c r="BD4" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="BE4">
-        <v>7</v>
+        <v>172</v>
       </c>
       <c r="BF4" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="BG4">
-        <v>7</v>
+        <v>170</v>
       </c>
       <c r="BH4" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="BI4">
-        <v>7</v>
+        <v>170</v>
       </c>
       <c r="BJ4" t="s">
         <v>82</v>
@@ -2085,6 +2148,12 @@
       </c>
       <c r="BM4" t="s">
         <v>88</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>98</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:71" x14ac:dyDescent="0.35">
@@ -2097,17 +2166,14 @@
       <c r="C5" t="s">
         <v>73</v>
       </c>
-      <c r="D5">
-        <v>2992</v>
-      </c>
       <c r="E5" t="s">
         <v>101</v>
       </c>
       <c r="F5" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G5">
-        <v>2548</v>
+        <v>2542</v>
       </c>
       <c r="H5" t="s">
         <v>76</v>
@@ -2122,28 +2188,28 @@
         <v>79</v>
       </c>
       <c r="L5" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="M5">
-        <v>7</v>
+        <v>170</v>
       </c>
       <c r="N5" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="O5">
-        <v>7</v>
+        <v>172</v>
       </c>
       <c r="P5" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="Q5">
-        <v>7</v>
+        <v>170</v>
       </c>
       <c r="R5" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="S5">
-        <v>7</v>
+        <v>170</v>
       </c>
       <c r="T5" t="s">
         <v>82</v>
@@ -2158,34 +2224,34 @@
         <v>84</v>
       </c>
       <c r="X5" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="Y5" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="Z5" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AA5">
-        <v>7</v>
+        <v>170</v>
       </c>
       <c r="AB5" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="AC5">
-        <v>7</v>
+        <v>172</v>
       </c>
       <c r="AD5" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AE5">
-        <v>7</v>
+        <v>170</v>
       </c>
       <c r="AF5" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AG5">
-        <v>7</v>
+        <v>170</v>
       </c>
       <c r="AH5" t="s">
         <v>82</v>
@@ -2200,34 +2266,34 @@
         <v>84</v>
       </c>
       <c r="AL5" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="AM5" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="AN5" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AO5">
-        <v>7</v>
+        <v>170</v>
       </c>
       <c r="AP5" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="AQ5">
-        <v>7</v>
+        <v>172</v>
       </c>
       <c r="AR5" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AS5">
-        <v>7</v>
+        <v>170</v>
       </c>
       <c r="AT5" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AU5">
-        <v>7</v>
+        <v>170</v>
       </c>
       <c r="AV5" t="s">
         <v>82</v>
@@ -2242,34 +2308,34 @@
         <v>84</v>
       </c>
       <c r="AZ5" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="BA5" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="BB5" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="BC5">
-        <v>7</v>
+        <v>170</v>
       </c>
       <c r="BD5" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="BE5">
-        <v>7</v>
+        <v>172</v>
       </c>
       <c r="BF5" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="BG5">
-        <v>7</v>
+        <v>170</v>
       </c>
       <c r="BH5" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="BI5">
-        <v>7</v>
+        <v>170</v>
       </c>
       <c r="BJ5" t="s">
         <v>82</v>
@@ -2282,11 +2348,17 @@
       </c>
       <c r="BM5" t="s">
         <v>88</v>
+      </c>
+      <c r="BO5" t="s">
+        <v>102</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s">
         <v>72</v>
@@ -2294,11 +2366,14 @@
       <c r="C6" t="s">
         <v>73</v>
       </c>
-      <c r="D6">
-        <v>2540</v>
-      </c>
       <c r="E6" t="s">
-        <v>129</v>
+        <v>105</v>
+      </c>
+      <c r="F6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G6">
+        <v>2542</v>
       </c>
       <c r="H6" t="s">
         <v>76</v>
@@ -2473,11 +2548,17 @@
       </c>
       <c r="BM6" t="s">
         <v>88</v>
+      </c>
+      <c r="BO6" t="s">
+        <v>106</v>
+      </c>
+      <c r="BP6" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B7" t="s">
         <v>72</v>
@@ -2485,17 +2566,14 @@
       <c r="C7" t="s">
         <v>73</v>
       </c>
-      <c r="D7">
-        <v>2541</v>
-      </c>
       <c r="E7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F7" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="G7">
-        <v>2540</v>
+        <v>2542</v>
       </c>
       <c r="H7" t="s">
         <v>76</v>
@@ -2670,11 +2748,17 @@
       </c>
       <c r="BM7" t="s">
         <v>88</v>
+      </c>
+      <c r="BO7" t="s">
+        <v>110</v>
+      </c>
+      <c r="BP7" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="B8" t="s">
         <v>72</v>
@@ -2682,17 +2766,14 @@
       <c r="C8" t="s">
         <v>73</v>
       </c>
-      <c r="D8">
-        <v>4085</v>
-      </c>
       <c r="E8" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="F8" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="G8">
-        <v>2540</v>
+        <v>2542</v>
       </c>
       <c r="H8" t="s">
         <v>76</v>
@@ -2869,15 +2950,15 @@
         <v>88</v>
       </c>
       <c r="BO8" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="BP8" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="B9" t="s">
         <v>72</v>
@@ -2885,11 +2966,14 @@
       <c r="C9" t="s">
         <v>73</v>
       </c>
-      <c r="D9">
-        <v>2551</v>
-      </c>
       <c r="E9" t="s">
-        <v>125</v>
+        <v>117</v>
+      </c>
+      <c r="F9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9">
+        <v>2542</v>
       </c>
       <c r="H9" t="s">
         <v>76</v>
@@ -2904,28 +2988,28 @@
         <v>79</v>
       </c>
       <c r="L9" t="s">
-        <v>126</v>
+        <v>80</v>
       </c>
       <c r="M9">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="N9" t="s">
-        <v>127</v>
+        <v>81</v>
       </c>
       <c r="O9">
-        <v>212</v>
+        <v>172</v>
       </c>
       <c r="P9" t="s">
-        <v>126</v>
+        <v>80</v>
       </c>
       <c r="Q9">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="R9" t="s">
-        <v>126</v>
+        <v>80</v>
       </c>
       <c r="S9">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="T9" t="s">
         <v>82</v>
@@ -2946,28 +3030,28 @@
         <v>86</v>
       </c>
       <c r="Z9" t="s">
-        <v>126</v>
+        <v>80</v>
       </c>
       <c r="AA9">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="AB9" t="s">
-        <v>127</v>
+        <v>81</v>
       </c>
       <c r="AC9">
-        <v>212</v>
+        <v>172</v>
       </c>
       <c r="AD9" t="s">
-        <v>126</v>
+        <v>80</v>
       </c>
       <c r="AE9">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="AF9" t="s">
-        <v>126</v>
+        <v>80</v>
       </c>
       <c r="AG9">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="AH9" t="s">
         <v>82</v>
@@ -2988,28 +3072,28 @@
         <v>86</v>
       </c>
       <c r="AN9" t="s">
-        <v>126</v>
+        <v>80</v>
       </c>
       <c r="AO9">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="AP9" t="s">
-        <v>127</v>
+        <v>81</v>
       </c>
       <c r="AQ9">
-        <v>212</v>
+        <v>172</v>
       </c>
       <c r="AR9" t="s">
-        <v>126</v>
+        <v>80</v>
       </c>
       <c r="AS9">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="AT9" t="s">
-        <v>126</v>
+        <v>80</v>
       </c>
       <c r="AU9">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="AV9" t="s">
         <v>82</v>
@@ -3030,28 +3114,28 @@
         <v>86</v>
       </c>
       <c r="BB9" t="s">
-        <v>126</v>
+        <v>80</v>
       </c>
       <c r="BC9">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="BD9" t="s">
-        <v>127</v>
+        <v>81</v>
       </c>
       <c r="BE9">
-        <v>212</v>
+        <v>172</v>
       </c>
       <c r="BF9" t="s">
-        <v>126</v>
+        <v>80</v>
       </c>
       <c r="BG9">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="BH9" t="s">
-        <v>126</v>
+        <v>80</v>
       </c>
       <c r="BI9">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="BJ9" t="s">
         <v>82</v>
@@ -3064,11 +3148,17 @@
       </c>
       <c r="BM9" t="s">
         <v>88</v>
+      </c>
+      <c r="BO9" t="s">
+        <v>118</v>
+      </c>
+      <c r="BP9" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B10" t="s">
         <v>72</v>
@@ -3077,16 +3167,10 @@
         <v>73</v>
       </c>
       <c r="D10">
-        <v>2552</v>
+        <v>2542</v>
       </c>
       <c r="E10" t="s">
-        <v>92</v>
-      </c>
-      <c r="F10" t="s">
-        <v>93</v>
-      </c>
-      <c r="G10">
-        <v>2551</v>
+        <v>120</v>
       </c>
       <c r="H10" t="s">
         <v>76</v>
@@ -3101,28 +3185,28 @@
         <v>79</v>
       </c>
       <c r="L10" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="M10">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="N10" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="O10">
-        <v>12</v>
+        <v>172</v>
       </c>
       <c r="P10" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="Q10">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="R10" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="S10">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="T10" t="s">
         <v>82</v>
@@ -3143,28 +3227,28 @@
         <v>86</v>
       </c>
       <c r="Z10" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="AA10">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="AB10" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="AC10">
-        <v>12</v>
+        <v>172</v>
       </c>
       <c r="AD10" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="AE10">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="AF10" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="AG10">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="AH10" t="s">
         <v>82</v>
@@ -3185,28 +3269,28 @@
         <v>86</v>
       </c>
       <c r="AN10" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="AO10">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="AP10" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="AQ10">
-        <v>12</v>
+        <v>172</v>
       </c>
       <c r="AR10" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="AS10">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="AT10" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="AU10">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="AV10" t="s">
         <v>82</v>
@@ -3227,28 +3311,28 @@
         <v>86</v>
       </c>
       <c r="BB10" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="BC10">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="BD10" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="BE10">
-        <v>12</v>
+        <v>172</v>
       </c>
       <c r="BF10" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="BG10">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="BH10" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="BI10">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="BJ10" t="s">
         <v>82</v>
@@ -3261,11 +3345,17 @@
       </c>
       <c r="BM10" t="s">
         <v>88</v>
+      </c>
+      <c r="BO10" t="s">
+        <v>121</v>
+      </c>
+      <c r="BP10" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="B11" t="s">
         <v>72</v>
@@ -3277,7 +3367,7 @@
         <v>2542</v>
       </c>
       <c r="E11" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="H11" t="s">
         <v>76</v>
@@ -3452,11 +3542,17 @@
       </c>
       <c r="BM11" t="s">
         <v>88</v>
+      </c>
+      <c r="BO11" t="s">
+        <v>123</v>
+      </c>
+      <c r="BP11" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="B12" t="s">
         <v>72</v>
@@ -3464,14 +3560,17 @@
       <c r="C12" t="s">
         <v>73</v>
       </c>
+      <c r="D12">
+        <v>2552</v>
+      </c>
       <c r="E12" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="F12" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="G12">
-        <v>2542</v>
+        <v>2551</v>
       </c>
       <c r="H12" t="s">
         <v>76</v>
@@ -3486,28 +3585,28 @@
         <v>79</v>
       </c>
       <c r="L12" t="s">
-        <v>80</v>
+        <v>128</v>
       </c>
       <c r="M12">
-        <v>170</v>
+        <v>10</v>
       </c>
       <c r="N12" t="s">
-        <v>81</v>
+        <v>129</v>
       </c>
       <c r="O12">
-        <v>172</v>
+        <v>12</v>
       </c>
       <c r="P12" t="s">
-        <v>80</v>
+        <v>128</v>
       </c>
       <c r="Q12">
-        <v>170</v>
+        <v>10</v>
       </c>
       <c r="R12" t="s">
-        <v>80</v>
+        <v>128</v>
       </c>
       <c r="S12">
-        <v>170</v>
+        <v>10</v>
       </c>
       <c r="T12" t="s">
         <v>82</v>
@@ -3528,28 +3627,28 @@
         <v>86</v>
       </c>
       <c r="Z12" t="s">
-        <v>80</v>
+        <v>128</v>
       </c>
       <c r="AA12">
-        <v>170</v>
+        <v>10</v>
       </c>
       <c r="AB12" t="s">
-        <v>81</v>
+        <v>129</v>
       </c>
       <c r="AC12">
-        <v>172</v>
+        <v>12</v>
       </c>
       <c r="AD12" t="s">
-        <v>80</v>
+        <v>128</v>
       </c>
       <c r="AE12">
-        <v>170</v>
+        <v>10</v>
       </c>
       <c r="AF12" t="s">
-        <v>80</v>
+        <v>128</v>
       </c>
       <c r="AG12">
-        <v>170</v>
+        <v>10</v>
       </c>
       <c r="AH12" t="s">
         <v>82</v>
@@ -3570,28 +3669,28 @@
         <v>86</v>
       </c>
       <c r="AN12" t="s">
-        <v>80</v>
+        <v>128</v>
       </c>
       <c r="AO12">
-        <v>170</v>
+        <v>10</v>
       </c>
       <c r="AP12" t="s">
-        <v>81</v>
+        <v>129</v>
       </c>
       <c r="AQ12">
-        <v>172</v>
+        <v>12</v>
       </c>
       <c r="AR12" t="s">
-        <v>80</v>
+        <v>128</v>
       </c>
       <c r="AS12">
-        <v>170</v>
+        <v>10</v>
       </c>
       <c r="AT12" t="s">
-        <v>80</v>
+        <v>128</v>
       </c>
       <c r="AU12">
-        <v>170</v>
+        <v>10</v>
       </c>
       <c r="AV12" t="s">
         <v>82</v>
@@ -3612,28 +3711,28 @@
         <v>86</v>
       </c>
       <c r="BB12" t="s">
-        <v>80</v>
+        <v>128</v>
       </c>
       <c r="BC12">
-        <v>170</v>
+        <v>10</v>
       </c>
       <c r="BD12" t="s">
-        <v>81</v>
+        <v>129</v>
       </c>
       <c r="BE12">
-        <v>172</v>
+        <v>12</v>
       </c>
       <c r="BF12" t="s">
-        <v>80</v>
+        <v>128</v>
       </c>
       <c r="BG12">
-        <v>170</v>
+        <v>10</v>
       </c>
       <c r="BH12" t="s">
-        <v>80</v>
+        <v>128</v>
       </c>
       <c r="BI12">
-        <v>170</v>
+        <v>10</v>
       </c>
       <c r="BJ12" t="s">
         <v>82</v>
@@ -3650,7 +3749,7 @@
     </row>
     <row r="13" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="B13" t="s">
         <v>72</v>
@@ -3658,14 +3757,17 @@
       <c r="C13" t="s">
         <v>73</v>
       </c>
+      <c r="D13">
+        <v>2550</v>
+      </c>
       <c r="E13" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="F13" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="G13">
-        <v>2542</v>
+        <v>2548</v>
       </c>
       <c r="H13" t="s">
         <v>76</v>
@@ -3680,28 +3782,28 @@
         <v>79</v>
       </c>
       <c r="L13" t="s">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="M13">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="N13" t="s">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="O13">
-        <v>172</v>
+        <v>7</v>
       </c>
       <c r="P13" t="s">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="Q13">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="R13" t="s">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="S13">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="T13" t="s">
         <v>82</v>
@@ -3722,28 +3824,28 @@
         <v>86</v>
       </c>
       <c r="Z13" t="s">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="AA13">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="AB13" t="s">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="AC13">
-        <v>172</v>
+        <v>7</v>
       </c>
       <c r="AD13" t="s">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="AE13">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="AF13" t="s">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="AG13">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="AH13" t="s">
         <v>82</v>
@@ -3764,28 +3866,28 @@
         <v>86</v>
       </c>
       <c r="AN13" t="s">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="AO13">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="AP13" t="s">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="AQ13">
-        <v>172</v>
+        <v>7</v>
       </c>
       <c r="AR13" t="s">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="AS13">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="AT13" t="s">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="AU13">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="AV13" t="s">
         <v>82</v>
@@ -3806,28 +3908,28 @@
         <v>86</v>
       </c>
       <c r="BB13" t="s">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="BC13">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="BD13" t="s">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="BE13">
-        <v>172</v>
+        <v>7</v>
       </c>
       <c r="BF13" t="s">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="BG13">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="BH13" t="s">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="BI13">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="BJ13" t="s">
         <v>82</v>
@@ -3844,7 +3946,7 @@
     </row>
     <row r="14" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="B14" t="s">
         <v>72</v>
@@ -3852,14 +3954,17 @@
       <c r="C14" t="s">
         <v>73</v>
       </c>
+      <c r="D14">
+        <v>2992</v>
+      </c>
       <c r="E14" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="F14" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="G14">
-        <v>2542</v>
+        <v>2548</v>
       </c>
       <c r="H14" t="s">
         <v>76</v>
@@ -3874,28 +3979,28 @@
         <v>79</v>
       </c>
       <c r="L14" t="s">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="M14">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="N14" t="s">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="O14">
-        <v>172</v>
+        <v>7</v>
       </c>
       <c r="P14" t="s">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="Q14">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="R14" t="s">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="S14">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="T14" t="s">
         <v>82</v>
@@ -3910,34 +4015,34 @@
         <v>84</v>
       </c>
       <c r="X14" t="s">
-        <v>85</v>
+        <v>136</v>
       </c>
       <c r="Y14" t="s">
-        <v>86</v>
+        <v>137</v>
       </c>
       <c r="Z14" t="s">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="AA14">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="AB14" t="s">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="AC14">
-        <v>172</v>
+        <v>7</v>
       </c>
       <c r="AD14" t="s">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="AE14">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="AF14" t="s">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="AG14">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="AH14" t="s">
         <v>82</v>
@@ -3952,34 +4057,34 @@
         <v>84</v>
       </c>
       <c r="AL14" t="s">
-        <v>85</v>
+        <v>136</v>
       </c>
       <c r="AM14" t="s">
-        <v>86</v>
+        <v>137</v>
       </c>
       <c r="AN14" t="s">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="AO14">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="AP14" t="s">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="AQ14">
-        <v>172</v>
+        <v>7</v>
       </c>
       <c r="AR14" t="s">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="AS14">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="AT14" t="s">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="AU14">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="AV14" t="s">
         <v>82</v>
@@ -3994,34 +4099,34 @@
         <v>84</v>
       </c>
       <c r="AZ14" t="s">
-        <v>85</v>
+        <v>136</v>
       </c>
       <c r="BA14" t="s">
-        <v>86</v>
+        <v>137</v>
       </c>
       <c r="BB14" t="s">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="BC14">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="BD14" t="s">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="BE14">
-        <v>172</v>
+        <v>7</v>
       </c>
       <c r="BF14" t="s">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="BG14">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="BH14" t="s">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="BI14">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="BJ14" t="s">
         <v>82</v>
@@ -4038,7 +4143,7 @@
     </row>
     <row r="15" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="B15" t="s">
         <v>72</v>
@@ -4046,14 +4151,17 @@
       <c r="C15" t="s">
         <v>73</v>
       </c>
+      <c r="D15">
+        <v>2549</v>
+      </c>
       <c r="E15" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="F15" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="G15">
-        <v>2542</v>
+        <v>2548</v>
       </c>
       <c r="H15" t="s">
         <v>76</v>
@@ -4068,28 +4176,28 @@
         <v>79</v>
       </c>
       <c r="L15" t="s">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="M15">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="N15" t="s">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="O15">
-        <v>172</v>
+        <v>7</v>
       </c>
       <c r="P15" t="s">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="Q15">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="R15" t="s">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="S15">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="T15" t="s">
         <v>82</v>
@@ -4110,28 +4218,28 @@
         <v>86</v>
       </c>
       <c r="Z15" t="s">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="AA15">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="AB15" t="s">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="AC15">
-        <v>172</v>
+        <v>7</v>
       </c>
       <c r="AD15" t="s">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="AE15">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="AF15" t="s">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="AG15">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="AH15" t="s">
         <v>82</v>
@@ -4152,28 +4260,28 @@
         <v>86</v>
       </c>
       <c r="AN15" t="s">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="AO15">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="AP15" t="s">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="AQ15">
-        <v>172</v>
+        <v>7</v>
       </c>
       <c r="AR15" t="s">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="AS15">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="AT15" t="s">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="AU15">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="AV15" t="s">
         <v>82</v>
@@ -4194,28 +4302,28 @@
         <v>86</v>
       </c>
       <c r="BB15" t="s">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="BC15">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="BD15" t="s">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="BE15">
-        <v>172</v>
+        <v>7</v>
       </c>
       <c r="BF15" t="s">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="BG15">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="BH15" t="s">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="BI15">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="BJ15" t="s">
         <v>82</v>
@@ -4232,7 +4340,7 @@
     </row>
     <row r="16" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="B16" t="s">
         <v>72</v>
@@ -4241,16 +4349,16 @@
         <v>73</v>
       </c>
       <c r="D16">
-        <v>2543</v>
+        <v>2541</v>
       </c>
       <c r="E16" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="F16" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="G16">
-        <v>2542</v>
+        <v>2540</v>
       </c>
       <c r="H16" t="s">
         <v>76</v>
@@ -4265,28 +4373,28 @@
         <v>79</v>
       </c>
       <c r="L16" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="M16">
-        <v>7</v>
+        <v>170</v>
       </c>
       <c r="N16" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="O16">
-        <v>7</v>
+        <v>172</v>
       </c>
       <c r="P16" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="Q16">
-        <v>7</v>
+        <v>170</v>
       </c>
       <c r="R16" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="S16">
-        <v>7</v>
+        <v>170</v>
       </c>
       <c r="T16" t="s">
         <v>82</v>
@@ -4307,28 +4415,28 @@
         <v>86</v>
       </c>
       <c r="Z16" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AA16">
-        <v>7</v>
+        <v>170</v>
       </c>
       <c r="AB16" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="AC16">
-        <v>7</v>
+        <v>172</v>
       </c>
       <c r="AD16" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AE16">
-        <v>7</v>
+        <v>170</v>
       </c>
       <c r="AF16" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AG16">
-        <v>7</v>
+        <v>170</v>
       </c>
       <c r="AH16" t="s">
         <v>82</v>
@@ -4349,28 +4457,28 @@
         <v>86</v>
       </c>
       <c r="AN16" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AO16">
-        <v>7</v>
+        <v>170</v>
       </c>
       <c r="AP16" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="AQ16">
-        <v>7</v>
+        <v>172</v>
       </c>
       <c r="AR16" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AS16">
-        <v>7</v>
+        <v>170</v>
       </c>
       <c r="AT16" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AU16">
-        <v>7</v>
+        <v>170</v>
       </c>
       <c r="AV16" t="s">
         <v>82</v>
@@ -4391,28 +4499,28 @@
         <v>86</v>
       </c>
       <c r="BB16" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="BC16">
-        <v>7</v>
+        <v>170</v>
       </c>
       <c r="BD16" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="BE16">
-        <v>7</v>
+        <v>172</v>
       </c>
       <c r="BF16" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="BG16">
-        <v>7</v>
+        <v>170</v>
       </c>
       <c r="BH16" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="BI16">
-        <v>7</v>
+        <v>170</v>
       </c>
       <c r="BJ16" t="s">
         <v>82</v>
@@ -4429,7 +4537,7 @@
     </row>
     <row r="17" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="B17" t="s">
         <v>72</v>
@@ -4437,11 +4545,14 @@
       <c r="C17" t="s">
         <v>73</v>
       </c>
+      <c r="D17">
+        <v>2543</v>
+      </c>
       <c r="E17" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="F17" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="G17">
         <v>2542</v>
@@ -4459,28 +4570,28 @@
         <v>79</v>
       </c>
       <c r="L17" t="s">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="M17">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="N17" t="s">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="O17">
-        <v>172</v>
+        <v>7</v>
       </c>
       <c r="P17" t="s">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="Q17">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="R17" t="s">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="S17">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="T17" t="s">
         <v>82</v>
@@ -4501,28 +4612,28 @@
         <v>86</v>
       </c>
       <c r="Z17" t="s">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="AA17">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="AB17" t="s">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="AC17">
-        <v>172</v>
+        <v>7</v>
       </c>
       <c r="AD17" t="s">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="AE17">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="AF17" t="s">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="AG17">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="AH17" t="s">
         <v>82</v>
@@ -4543,28 +4654,28 @@
         <v>86</v>
       </c>
       <c r="AN17" t="s">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="AO17">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="AP17" t="s">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="AQ17">
-        <v>172</v>
+        <v>7</v>
       </c>
       <c r="AR17" t="s">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="AS17">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="AT17" t="s">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="AU17">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="AV17" t="s">
         <v>82</v>
@@ -4585,28 +4696,28 @@
         <v>86</v>
       </c>
       <c r="BB17" t="s">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="BC17">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="BD17" t="s">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="BE17">
-        <v>172</v>
+        <v>7</v>
       </c>
       <c r="BF17" t="s">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="BG17">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="BH17" t="s">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="BI17">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="BJ17" t="s">
         <v>82</v>
@@ -4623,7 +4734,7 @@
     </row>
     <row r="18" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B18" t="s">
         <v>72</v>
@@ -4631,14 +4742,11 @@
       <c r="C18" t="s">
         <v>73</v>
       </c>
+      <c r="D18">
+        <v>2551</v>
+      </c>
       <c r="E18" t="s">
-        <v>120</v>
-      </c>
-      <c r="F18" t="s">
-        <v>110</v>
-      </c>
-      <c r="G18">
-        <v>2542</v>
+        <v>144</v>
       </c>
       <c r="H18" t="s">
         <v>76</v>
@@ -4653,28 +4761,28 @@
         <v>79</v>
       </c>
       <c r="L18" t="s">
-        <v>80</v>
+        <v>145</v>
       </c>
       <c r="M18">
-        <v>170</v>
+        <v>210</v>
       </c>
       <c r="N18" t="s">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="O18">
-        <v>172</v>
+        <v>212</v>
       </c>
       <c r="P18" t="s">
-        <v>80</v>
+        <v>145</v>
       </c>
       <c r="Q18">
-        <v>170</v>
+        <v>210</v>
       </c>
       <c r="R18" t="s">
-        <v>80</v>
+        <v>145</v>
       </c>
       <c r="S18">
-        <v>170</v>
+        <v>210</v>
       </c>
       <c r="T18" t="s">
         <v>82</v>
@@ -4695,28 +4803,28 @@
         <v>86</v>
       </c>
       <c r="Z18" t="s">
-        <v>80</v>
+        <v>145</v>
       </c>
       <c r="AA18">
-        <v>170</v>
+        <v>210</v>
       </c>
       <c r="AB18" t="s">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="AC18">
-        <v>172</v>
+        <v>212</v>
       </c>
       <c r="AD18" t="s">
-        <v>80</v>
+        <v>145</v>
       </c>
       <c r="AE18">
-        <v>170</v>
+        <v>210</v>
       </c>
       <c r="AF18" t="s">
-        <v>80</v>
+        <v>145</v>
       </c>
       <c r="AG18">
-        <v>170</v>
+        <v>210</v>
       </c>
       <c r="AH18" t="s">
         <v>82</v>
@@ -4737,28 +4845,28 @@
         <v>86</v>
       </c>
       <c r="AN18" t="s">
-        <v>80</v>
+        <v>145</v>
       </c>
       <c r="AO18">
-        <v>170</v>
+        <v>210</v>
       </c>
       <c r="AP18" t="s">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="AQ18">
-        <v>172</v>
+        <v>212</v>
       </c>
       <c r="AR18" t="s">
-        <v>80</v>
+        <v>145</v>
       </c>
       <c r="AS18">
-        <v>170</v>
+        <v>210</v>
       </c>
       <c r="AT18" t="s">
-        <v>80</v>
+        <v>145</v>
       </c>
       <c r="AU18">
-        <v>170</v>
+        <v>210</v>
       </c>
       <c r="AV18" t="s">
         <v>82</v>
@@ -4779,28 +4887,28 @@
         <v>86</v>
       </c>
       <c r="BB18" t="s">
-        <v>80</v>
+        <v>145</v>
       </c>
       <c r="BC18">
-        <v>170</v>
+        <v>210</v>
       </c>
       <c r="BD18" t="s">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="BE18">
-        <v>172</v>
+        <v>212</v>
       </c>
       <c r="BF18" t="s">
-        <v>80</v>
+        <v>145</v>
       </c>
       <c r="BG18">
-        <v>170</v>
+        <v>210</v>
       </c>
       <c r="BH18" t="s">
-        <v>80</v>
+        <v>145</v>
       </c>
       <c r="BI18">
-        <v>170</v>
+        <v>210</v>
       </c>
       <c r="BJ18" t="s">
         <v>82</v>
@@ -4817,7 +4925,7 @@
     </row>
     <row r="19" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="B19" t="s">
         <v>72</v>
@@ -4825,14 +4933,11 @@
       <c r="C19" t="s">
         <v>73</v>
       </c>
+      <c r="D19">
+        <v>2548</v>
+      </c>
       <c r="E19" t="s">
-        <v>114</v>
-      </c>
-      <c r="F19" t="s">
-        <v>110</v>
-      </c>
-      <c r="G19">
-        <v>2542</v>
+        <v>147</v>
       </c>
       <c r="H19" t="s">
         <v>76</v>
@@ -4847,28 +4952,28 @@
         <v>79</v>
       </c>
       <c r="L19" t="s">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="M19">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="N19" t="s">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="O19">
-        <v>172</v>
+        <v>7</v>
       </c>
       <c r="P19" t="s">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="Q19">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="R19" t="s">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="S19">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="T19" t="s">
         <v>82</v>
@@ -4889,28 +4994,28 @@
         <v>86</v>
       </c>
       <c r="Z19" t="s">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="AA19">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="AB19" t="s">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="AC19">
-        <v>172</v>
+        <v>7</v>
       </c>
       <c r="AD19" t="s">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="AE19">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="AF19" t="s">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="AG19">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="AH19" t="s">
         <v>82</v>
@@ -4931,28 +5036,28 @@
         <v>86</v>
       </c>
       <c r="AN19" t="s">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="AO19">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="AP19" t="s">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="AQ19">
-        <v>172</v>
+        <v>7</v>
       </c>
       <c r="AR19" t="s">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="AS19">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="AT19" t="s">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="AU19">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="AV19" t="s">
         <v>82</v>
@@ -4973,28 +5078,28 @@
         <v>86</v>
       </c>
       <c r="BB19" t="s">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="BC19">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="BD19" t="s">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="BE19">
-        <v>172</v>
+        <v>7</v>
       </c>
       <c r="BF19" t="s">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="BG19">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="BH19" t="s">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="BI19">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="BJ19" t="s">
         <v>82</v>
@@ -5009,12 +5114,198 @@
         <v>88</v>
       </c>
     </row>
+    <row r="20" spans="1:65" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20">
+        <v>2540</v>
+      </c>
+      <c r="E20" t="s">
+        <v>148</v>
+      </c>
+      <c r="H20" t="s">
+        <v>76</v>
+      </c>
+      <c r="I20" t="s">
+        <v>77</v>
+      </c>
+      <c r="J20" t="s">
+        <v>78</v>
+      </c>
+      <c r="K20" t="s">
+        <v>79</v>
+      </c>
+      <c r="L20" t="s">
+        <v>80</v>
+      </c>
+      <c r="M20">
+        <v>170</v>
+      </c>
+      <c r="N20" t="s">
+        <v>81</v>
+      </c>
+      <c r="O20">
+        <v>172</v>
+      </c>
+      <c r="P20" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q20">
+        <v>170</v>
+      </c>
+      <c r="R20" t="s">
+        <v>80</v>
+      </c>
+      <c r="S20">
+        <v>170</v>
+      </c>
+      <c r="T20" t="s">
+        <v>82</v>
+      </c>
+      <c r="U20">
+        <v>253</v>
+      </c>
+      <c r="V20" t="s">
+        <v>83</v>
+      </c>
+      <c r="W20" t="s">
+        <v>84</v>
+      </c>
+      <c r="X20" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA20">
+        <v>170</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC20">
+        <v>172</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE20">
+        <v>170</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG20">
+        <v>170</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI20">
+        <v>253</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>83</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO20">
+        <v>170</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ20">
+        <v>172</v>
+      </c>
+      <c r="AR20" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS20">
+        <v>170</v>
+      </c>
+      <c r="AT20" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU20">
+        <v>170</v>
+      </c>
+      <c r="AV20" t="s">
+        <v>82</v>
+      </c>
+      <c r="AW20">
+        <v>253</v>
+      </c>
+      <c r="AX20" t="s">
+        <v>83</v>
+      </c>
+      <c r="AY20" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ20" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA20" t="s">
+        <v>86</v>
+      </c>
+      <c r="BB20" t="s">
+        <v>80</v>
+      </c>
+      <c r="BC20">
+        <v>170</v>
+      </c>
+      <c r="BD20" t="s">
+        <v>81</v>
+      </c>
+      <c r="BE20">
+        <v>172</v>
+      </c>
+      <c r="BF20" t="s">
+        <v>80</v>
+      </c>
+      <c r="BG20">
+        <v>170</v>
+      </c>
+      <c r="BH20" t="s">
+        <v>80</v>
+      </c>
+      <c r="BI20">
+        <v>170</v>
+      </c>
+      <c r="BJ20" t="s">
+        <v>82</v>
+      </c>
+      <c r="BK20">
+        <v>253</v>
+      </c>
+      <c r="BL20" t="s">
+        <v>87</v>
+      </c>
+      <c r="BM20" t="s">
+        <v>88</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:BS19" xr:uid="{D8A736BD-04EE-404C-8332-E65186A3D1FE}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:BS19">
-      <sortCondition ref="E1:E19"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>